--- a/data/scaledupit.xlsx
+++ b/data/scaledupit.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sturj\eclipse-workspace\Selenium\May2023FinalBootcamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sturj\eclipse-workspace\Selenium\May2023FinalBootcamp\WebAutomationFramework\May2023Team6-Web-Automation-Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6027540E-BE79-4D9E-8825-41182308204D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245BCFC7-3A36-489A-9345-032B7164A96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{600AF01B-5A50-4ED4-81A2-12D5EA58E533}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{600AF01B-5A50-4ED4-81A2-12D5EA58E533}"/>
   </bookViews>
   <sheets>
     <sheet name="QuickLinks" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -93,16 +94,62 @@
   </si>
   <si>
     <t>Blog – Automation</t>
+  </si>
+  <si>
+    <t>New Email</t>
+  </si>
+  <si>
+    <t>Valid Password</t>
+  </si>
+  <si>
+    <t>registertest1@example.com</t>
+  </si>
+  <si>
+    <t>QAZXSWEDc$1</t>
+  </si>
+  <si>
+    <t>QAZXSWEDc$12</t>
+  </si>
+  <si>
+    <t>QAZXSWEDc$123</t>
+  </si>
+  <si>
+    <t>QAZXSWEDc$1234</t>
+  </si>
+  <si>
+    <t>registertest12@example.com</t>
+  </si>
+  <si>
+    <t>registertest123@example.com</t>
+  </si>
+  <si>
+    <t>registertest1234@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,13 +172,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC31F52-6F3C-44C4-BCB3-000AA0B4FD0F}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -540,4 +591,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3641CF8B-EF43-4427-9836-4F5E91C64B89}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{10D7FB4C-C9EA-499E-B364-D30F93419D59}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{296F66AE-691B-4171-B244-F0DD8E759181}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{B94BDD3B-8CD9-4724-8C5A-B7AB434D6715}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{DCB0B284-EDE3-484C-83C0-D946C1A233C6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>
--- a/data/scaledupit.xlsx
+++ b/data/scaledupit.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sturj\eclipse-workspace\Selenium\May2023FinalBootcamp\WebAutomationFramework\May2023Team6-Web-Automation-Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245BCFC7-3A36-489A-9345-032B7164A96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D76A7C7-EEDA-464F-AC68-01888D96A211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{600AF01B-5A50-4ED4-81A2-12D5EA58E533}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{600AF01B-5A50-4ED4-81A2-12D5EA58E533}"/>
   </bookViews>
   <sheets>
     <sheet name="QuickLinks" sheetId="1" r:id="rId1"/>
-    <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="registrationDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
